--- a/doc/table/名字表.xlsx
+++ b/doc/table/名字表.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="随机名字生成" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="1075">
   <si>
     <t>类型：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3652,6 +3652,22 @@
   </si>
   <si>
     <t>据</t>
+  </si>
+  <si>
+    <t>角色名1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名2</t>
+  </si>
+  <si>
+    <t>角色名3</t>
+  </si>
+  <si>
+    <t>角色名4</t>
+  </si>
+  <si>
+    <t>角色名5</t>
   </si>
 </sst>
 </file>
@@ -3706,7 +3722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3719,191 +3735,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4095,6 +3935,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                  <a:ea typeface="宋体"/>
+                </a:rPr>
+                <a:t>按钮 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4386,8 +4301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4396,7 +4311,7 @@
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="4" width="7.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -21959,58 +21874,58 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B65">
-    <cfRule type="duplicateValues" dxfId="35" priority="22" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B82">
-    <cfRule type="duplicateValues" dxfId="34" priority="23" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="23" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:B161">
-    <cfRule type="duplicateValues" dxfId="33" priority="24" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="24" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279:B342">
-    <cfRule type="duplicateValues" dxfId="32" priority="19" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="19" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279:B359">
-    <cfRule type="duplicateValues" dxfId="31" priority="20" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B360:B402">
-    <cfRule type="duplicateValues" dxfId="30" priority="21" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="21" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B403:B466">
-    <cfRule type="duplicateValues" dxfId="23" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B403:B483">
-    <cfRule type="duplicateValues" dxfId="21" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B484:B562">
-    <cfRule type="duplicateValues" dxfId="19" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B680:B743">
-    <cfRule type="duplicateValues" dxfId="17" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B680:B760">
-    <cfRule type="duplicateValues" dxfId="15" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B761:B803">
-    <cfRule type="duplicateValues" dxfId="13" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B804:B867">
-    <cfRule type="duplicateValues" dxfId="11" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B804:B884">
-    <cfRule type="duplicateValues" dxfId="9" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B885:B963">
-    <cfRule type="duplicateValues" dxfId="7" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1081:B1144">
-    <cfRule type="duplicateValues" dxfId="5" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1081:B1161">
-    <cfRule type="duplicateValues" dxfId="3" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1162:B1204">
-    <cfRule type="duplicateValues" dxfId="1" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22022,7 +21937,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22042,14 +21957,239 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="6">
+        <f ca="1">ROUNDUP(RAND(),3)*1000</f>
+        <v>906</v>
+      </c>
+      <c r="B1" s="6">
+        <f ca="1">ROUNDUP(RAND(),3)*1000</f>
+        <v>824</v>
+      </c>
+      <c r="C1" s="6">
+        <f ca="1">ROUNDUP(RAND(),3)*1000</f>
+        <v>219</v>
+      </c>
+      <c r="D1" s="6">
+        <f ca="1">ROUNDUP(RAND(),3)*1000</f>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
+        <f ca="1">ROUNDUP(RAND(),3)*1000</f>
+        <v>28</v>
+      </c>
+      <c r="B2" s="6">
+        <f ca="1">ROUNDUP(RAND(),3)*1000</f>
+        <v>708</v>
+      </c>
+      <c r="C2" s="6">
+        <f ca="1">ROUNDUP(RAND(),3)*1000</f>
+        <v>319</v>
+      </c>
+      <c r="D2" s="6">
+        <f ca="1">ROUNDUP(RAND(),3)*1000</f>
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <f ca="1">ROUNDUP(RAND(),3)*1000</f>
+        <v>805</v>
+      </c>
+      <c r="B3" s="6">
+        <f ca="1">ROUNDUP(RAND(),3)*1000</f>
+        <v>194</v>
+      </c>
+      <c r="C3" s="6">
+        <f ca="1">ROUNDUP(RAND(),3)*1000</f>
+        <v>597</v>
+      </c>
+      <c r="D3" s="6">
+        <f ca="1">ROUNDUP(RAND(),3)*1000</f>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <f t="shared" ref="A4:D6" ca="1" si="0">ROUNDUP(RAND(),3)*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>589</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>735</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>461</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>828</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>703</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="str">
+        <f ca="1">VLOOKUP(A1,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP(B1,Sheet1!$A$2:$E$1001,3,1)&amp;VLOOKUP(C1,Sheet1!$A$2:$E$1001,4,1)&amp;VLOOKUP(D1,Sheet1!$A$2:$E$1001,5,1)</f>
+        <v>温长翎夜</v>
+      </c>
+      <c r="B10" t="str">
+        <f ca="1">VLOOKUP($A$2,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP($B$2,Sheet1!$A$2:$E$1001,3,1)&amp;VLOOKUP($C$2,Sheet1!$A$2:$E$1001,4,1)&amp;VLOOKUP($D$2,Sheet1!$A$2:$E$1001,5,1)</f>
+        <v>冯文裕池</v>
+      </c>
+      <c r="C10" t="str">
+        <f ca="1">VLOOKUP($A$3,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP($B$3,Sheet1!$A$2:$E$1001,3,1)&amp;VLOOKUP($C$3,Sheet1!$A$2:$E$1001,4,1)&amp;VLOOKUP($D$3,Sheet1!$A$2:$E$1001,5,1)</f>
+        <v>张狂楠可</v>
+      </c>
+      <c r="D10" t="str">
+        <f ca="1">VLOOKUP($A$4,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP($B$4,Sheet1!$A$2:$E$1001,3,1)&amp;VLOOKUP($C$4,Sheet1!$A$2:$E$1001,4,1)&amp;VLOOKUP($D$4,Sheet1!$A$2:$E$1001,5,1)</f>
+        <v>项恨安毓</v>
+      </c>
+      <c r="E10" t="str">
+        <f ca="1">VLOOKUP($A$5,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP($B$5,Sheet1!$A$2:$E$1001,3,1)&amp;VLOOKUP($C$5,Sheet1!$A$2:$E$1001,4,1)&amp;VLOOKUP($D$5,Sheet1!$A$2:$E$1001,5,1)</f>
+        <v>汪文双芮</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="str">
+        <f ca="1">VLOOKUP(A1,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP(B1,Sheet1!$A$2:$E$1001,3,1)&amp;VLOOKUP(C1,Sheet1!$A$2:$E$1001,4,1)</f>
+        <v>温长翎</v>
+      </c>
+      <c r="B11" t="str">
+        <f ca="1">VLOOKUP($A$2,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP($B$2,Sheet1!$A$2:$E$1001,3,1)&amp;VLOOKUP($C$2,Sheet1!$A$2:$E$1001,4,1)</f>
+        <v>冯文裕</v>
+      </c>
+      <c r="C11" t="str">
+        <f ca="1">VLOOKUP($A$3,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP($B$3,Sheet1!$A$2:$E$1001,3,1)&amp;VLOOKUP($C$3,Sheet1!$A$2:$E$1001,4,1)</f>
+        <v>张狂楠</v>
+      </c>
+      <c r="D11" t="str">
+        <f ca="1">VLOOKUP($A$4,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP($B$4,Sheet1!$A$2:$E$1001,3,1)&amp;VLOOKUP($C$4,Sheet1!$A$2:$E$1001,4,1)</f>
+        <v>项恨安</v>
+      </c>
+      <c r="E11" t="str">
+        <f ca="1">VLOOKUP($A$5,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP($B$5,Sheet1!$A$2:$E$1001,3,1)&amp;VLOOKUP($C$5,Sheet1!$A$2:$E$1001,4,1)</f>
+        <v>汪文双</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="str">
+        <f ca="1">VLOOKUP(A1,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP(B1,Sheet1!$A$2:$E$1001,3,1)</f>
+        <v>温长</v>
+      </c>
+      <c r="B12" t="str">
+        <f ca="1">VLOOKUP($A$2,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP($B$2,Sheet1!$A$2:$E$1001,3,1)</f>
+        <v>冯文</v>
+      </c>
+      <c r="C12" t="str">
+        <f ca="1">VLOOKUP($A$3,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP($B$3,Sheet1!$A$2:$E$1001,3,1)</f>
+        <v>张狂</v>
+      </c>
+      <c r="D12" t="str">
+        <f ca="1">VLOOKUP($A$4,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP($B$4,Sheet1!$A$2:$E$1001,3,1)</f>
+        <v>项恨</v>
+      </c>
+      <c r="E12" t="str">
+        <f ca="1">VLOOKUP($A$5,Sheet1!$A$2:$E$1001,2,1)&amp;VLOOKUP($B$5,Sheet1!$A$2:$E$1001,3,1)</f>
+        <v>汪文</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!按钮1_Click">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>371475</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>